--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA0F52-7F0D-4D65-B7BF-5AA45530ECBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BD942-690C-4BBC-B98B-00658641F785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>CollectionThreshold</t>
+  </si>
+  <si>
+    <t>Set the value to 1 for testing jobstreet</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -606,44 +609,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -651,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1641,13 +1648,14 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="/" xr:uid="{C939FE92-9B27-44A2-A253-1EF1B37E2393}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{70B7698E-F587-4163-A8B2-03F8BCBCE1D5}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{9CFAABF4-3A03-48F0-9B1D-10B94C1876FD}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{D41F2438-1C84-4895-9CC6-8107BEBFFB61}"/>
+    <hyperlink ref="B5" r:id="rId1" location="/" xr:uid="{C939FE92-9B27-44A2-A253-1EF1B37E2393}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{70B7698E-F587-4163-A8B2-03F8BCBCE1D5}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{9CFAABF4-3A03-48F0-9B1D-10B94C1876FD}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{D41F2438-1C84-4895-9CC6-8107BEBFFB61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BD942-690C-4BBC-B98B-00658641F785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A05E1-A14A-409C-B1CC-DE722BA87F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>CollectionThreshold</t>
   </si>
   <si>
-    <t>Set the value to 1 for testing jobstreet</t>
+    <t>Set the value to 1 for testing jobstreet and facebook</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A05E1-A14A-409C-B1CC-DE722BA87F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACD9F8-B50B-4C58-8A87-43C361765520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BACD9F8-B50B-4C58-8A87-43C361765520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B77748-1061-4FA6-9BB7-C84F7C648FFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B77748-1061-4FA6-9BB7-C84F7C648FFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EBCC7-EC7B-47B7-A027-8269DC26A48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20844" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EBCC7-EC7B-47B7-A027-8269DC26A48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7CEB6-01A4-4B2A-B625-41B8A0A33BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20844" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7CEB6-01A4-4B2A-B625-41B8A0A33BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5DD68E-0034-4712-95BF-29598A50F8BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,7 +658,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
